--- a/biology/Botanique/Red_Devil_(pomme)/Red_Devil_(pomme).xlsx
+++ b/biology/Botanique/Red_Devil_(pomme)/Red_Devil_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Red Devil est un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Utilisation : pomme à dessert et à jus rose.
 Pelure : rouge.
@@ -545,7 +559,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Création: 1975, Kent, Angleterre
 Mise sur le marché: 1990 par la nurcerie Matthews de Worcester</t>
@@ -576,9 +592,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cultivar Red Devil résulte du croisement: Discovery × Kent[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cultivar Red Devil résulte du croisement: Discovery × Kent.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Variété diploïde, autofertile[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Variété diploïde, autofertile.
 Groupe de floraison : C (4 jours avant Golden Delicious).
 Pollinisateurs: Delbarestivale delcorf, ...</t>
         </is>
@@ -639,7 +659,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tavelure : très peu susceptible
 Mildiou : très peu susceptible</t>
@@ -670,11 +692,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa faible susceptibilité à la tavelure permet son utilisation dans les jardins familiaux respectueux de l'environnement. Elle arrive à maturité fin septembre.
 Vigueur: forte.
-Cueillette: fin septembre[3].
+Cueillette: fin septembre.
 </t>
         </is>
       </c>
